--- a/synthetic_event_logs_by_user.xlsx
+++ b/synthetic_event_logs_by_user.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>is_logged_in</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_spent_sec</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -468,18 +473,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>42ac8957-dbca-4afe-9e72-e1f35fa37cb5</t>
+          <t>320a05f2-b759-434a-a5a0-8055bc814ead</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1013</v>
+        <v>1102</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.515818</t>
+          <t>2001-01-01T09:25:14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -489,20 +495,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>42ac8957-dbca-4afe-9e72-e1f35fa37cb5</t>
+          <t>320a05f2-b759-434a-a5a0-8055bc814ead</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1013</v>
+        <v>1102</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.515826</t>
+          <t>2001-01-01T09:25:16.917233</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -512,251 +519,279 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>42ac8957-dbca-4afe-9e72-e1f35fa37cb5</t>
+          <t>320a05f2-b759-434a-a5a0-8055bc814ead</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1013</v>
+        <v>1102</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.515839</t>
+          <t>2001-01-01T09:25:22.069377</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>5.15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PROB_VIEW_ITEM_LIST</t>
+          <t>PROB_MAINPAGE_LOGIN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>42ac8957-dbca-4afe-9e72-e1f35fa37cb5</t>
+          <t>320a05f2-b759-434a-a5a0-8055bc814ead</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1013</v>
+        <v>1102</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.515862</t>
+          <t>2001-01-01T09:25:27.728291</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>5.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PROB_VIEW_ITEM_LOGIN</t>
+          <t>PROB_MAINPAGE_LOGIN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>42ac8957-dbca-4afe-9e72-e1f35fa37cb5</t>
+          <t>320a05f2-b759-434a-a5a0-8055bc814ead</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1013</v>
+        <v>1102</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.515869</t>
+          <t>2001-01-01T09:25:33.260987</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>5.53</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PROB_PURCHASE_CLEAR</t>
+          <t>PROB_MAINPAGE_LOGIN</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>42ac8957-dbca-4afe-9e72-e1f35fa37cb5</t>
+          <t>320a05f2-b759-434a-a5a0-8055bc814ead</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1013</v>
+        <v>1102</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.515874</t>
+          <t>2001-01-01T09:25:39.584840</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>6.32</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PROB_ORDER_DETAIL</t>
+          <t>PROB_VIEW_ITEM_LIST</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>42ac8957-dbca-4afe-9e72-e1f35fa37cb5</t>
+          <t>320a05f2-b759-434a-a5a0-8055bc814ead</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1013</v>
+        <v>1102</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.515879</t>
+          <t>2001-01-01T09:25:52.967623</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>13.38</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>App Launch</t>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>a9aeffc5-6095-4122-b96c-ed91cd92fb89</t>
+          <t>320a05f2-b759-434a-a5a0-8055bc814ead</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2146</v>
+        <v>1102</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.516899</t>
+          <t>2001-01-01T09:26:14.179935</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>21.21</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>View Main Page</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>a9aeffc5-6095-4122-b96c-ed91cd92fb89</t>
+          <t>320a05f2-b759-434a-a5a0-8055bc814ead</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2146</v>
+        <v>1102</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.516903</t>
-        </is>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
+          <t>2001-01-01T09:26:15.179935</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PROB_MAINPAGE_LOGIN</t>
+          <t>Reconnect_Session</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>a9aeffc5-6095-4122-b96c-ed91cd92fb89</t>
+          <t>320a05f2-b759-434a-a5a0-8055bc814ead</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2146</v>
+        <v>1102</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.516909</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>2001-01-01T09:26:21.342559</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PROB_VIEW_ITEM_LIST</t>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>a9aeffc5-6095-4122-b96c-ed91cd92fb89</t>
+          <t>320a05f2-b759-434a-a5a0-8055bc814ead</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2146</v>
+        <v>1102</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.516914</t>
+          <t>2001-01-01T09:26:46.009375</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>24.67</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PROB_VIEW_ITEM_LOGIN</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>a9aeffc5-6095-4122-b96c-ed91cd92fb89</t>
+          <t>320a05f2-b759-434a-a5a0-8055bc814ead</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2146</v>
+        <v>1102</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.516919</t>
+          <t>2001-01-01T09:26:47.009375</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PROB_ACTION_AFTER_ADD_TO_CART</t>
+          <t>App Launch</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>a9aeffc5-6095-4122-b96c-ed91cd92fb89</t>
+          <t>6d1cc82f-32fa-4ef1-a67f-520cbcf1d35b</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2146</v>
+        <v>1102</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.516923</t>
+          <t>2001-01-15T08:58:29</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PROB_ACTION_AFTER_VIEW_CART</t>
+          <t>View Main Page</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>a9aeffc5-6095-4122-b96c-ed91cd92fb89</t>
+          <t>6d1cc82f-32fa-4ef1-a67f-520cbcf1d35b</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2146</v>
+        <v>1102</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.516927</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>2001-01-15T08:58:30.528047</t>
+        </is>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -766,18 +801,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>a9aeffc5-6095-4122-b96c-ed91cd92fb89</t>
+          <t>6d1cc82f-32fa-4ef1-a67f-520cbcf1d35b</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2146</v>
+        <v>1102</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.516932</t>
+          <t>2001-01-15T08:58:34.058609</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>3.53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -787,18 +825,21 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>a9aeffc5-6095-4122-b96c-ed91cd92fb89</t>
+          <t>6d1cc82f-32fa-4ef1-a67f-520cbcf1d35b</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2146</v>
+        <v>1102</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.516935</t>
+          <t>2001-01-15T08:58:48.208095</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>14.15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -808,633 +849,6357 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>a9aeffc5-6095-4122-b96c-ed91cd92fb89</t>
+          <t>6d1cc82f-32fa-4ef1-a67f-520cbcf1d35b</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2146</v>
+        <v>1102</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.516939</t>
+          <t>2001-01-15T08:59:12.347214</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>24.14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PROB_ACTION_AFTER_ADD_TO_CART</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>a9aeffc5-6095-4122-b96c-ed91cd92fb89</t>
+          <t>6d1cc82f-32fa-4ef1-a67f-520cbcf1d35b</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2146</v>
+        <v>1102</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.516942</t>
+          <t>2001-01-15T08:59:13.347214</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PROB_MAINPAGE_LOGIN</t>
+          <t>Reconnect_Session</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>a9aeffc5-6095-4122-b96c-ed91cd92fb89</t>
+          <t>6d1cc82f-32fa-4ef1-a67f-520cbcf1d35b</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2146</v>
+        <v>1102</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.516946</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>2001-01-15T08:59:21.229109</t>
+        </is>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PROB_MAINPAGE_LOGIN</t>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>a9aeffc5-6095-4122-b96c-ed91cd92fb89</t>
+          <t>6d1cc82f-32fa-4ef1-a67f-520cbcf1d35b</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2146</v>
+        <v>1102</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.516949</t>
+          <t>2001-01-15T08:59:43.106338</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>21.88</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PROB_VIEW_ITEM_LIST</t>
+          <t>PROB_ACTION_AFTER_ADD_TO_CART</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>a9aeffc5-6095-4122-b96c-ed91cd92fb89</t>
+          <t>6d1cc82f-32fa-4ef1-a67f-520cbcf1d35b</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2146</v>
+        <v>1102</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.516953</t>
+          <t>2001-01-15T08:59:45.836949</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>2.73</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PROB_VIEW_ITEM_LOGIN</t>
+          <t>PROB_MAINPAGE_LOGIN</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>a9aeffc5-6095-4122-b96c-ed91cd92fb89</t>
+          <t>6d1cc82f-32fa-4ef1-a67f-520cbcf1d35b</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2146</v>
+        <v>1102</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.516956</t>
+          <t>2001-01-15T08:59:50.782112</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>4.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>App Launch</t>
+          <t>PROB_VIEW_ITEM_LIST</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>b40d8008-c1db-4142-9fad-2f964213ba32</t>
+          <t>6d1cc82f-32fa-4ef1-a67f-520cbcf1d35b</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2334</v>
+        <v>1102</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.519468</t>
+          <t>2001-01-15T09:00:05.532369</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>14.75</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>View Main Page</t>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>b40d8008-c1db-4142-9fad-2f964213ba32</t>
+          <t>6d1cc82f-32fa-4ef1-a67f-520cbcf1d35b</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2334</v>
+        <v>1102</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.519473</t>
-        </is>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
+          <t>2001-01-15T09:00:26.392908</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>20.86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PROB_MAINPAGE_LOGIN</t>
+          <t>PROB_PURCHASE_CLEAR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>b40d8008-c1db-4142-9fad-2f964213ba32</t>
+          <t>6d1cc82f-32fa-4ef1-a67f-520cbcf1d35b</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2334</v>
+        <v>1102</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.519480</t>
+          <t>2001-01-15T09:00:34.264516</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>7.87</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PROB_MAINPAGE_LOGIN</t>
+          <t>PROB_ORDER_DETAIL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>b40d8008-c1db-4142-9fad-2f964213ba32</t>
+          <t>6d1cc82f-32fa-4ef1-a67f-520cbcf1d35b</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2334</v>
+        <v>1102</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.519487</t>
+          <t>2001-01-15T09:00:51.197866</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>16.93</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PROB_VIEW_ITEM_LIST</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>b40d8008-c1db-4142-9fad-2f964213ba32</t>
+          <t>6d1cc82f-32fa-4ef1-a67f-520cbcf1d35b</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2334</v>
+        <v>1102</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.519492</t>
+          <t>2001-01-15T09:00:52.197866</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PROB_VIEW_ITEM_LOGIN</t>
+          <t>App Launch</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>b40d8008-c1db-4142-9fad-2f964213ba32</t>
+          <t>d2841713-f550-49b4-9a1f-164b378c8479</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2334</v>
+        <v>1102</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.519496</t>
+          <t>2001-01-24T09:04:36</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>App Launch</t>
+          <t>View Main Page</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>870ba5e5-57a1-4e35-bc53-7a7473805409</t>
+          <t>d2841713-f550-49b4-9a1f-164b378c8479</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2975</v>
+        <v>1102</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.518299</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>2001-01-24T09:04:37.450937</t>
+        </is>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>View Main Page</t>
+          <t>PROB_MAINPAGE_NOT_LOGIN</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>870ba5e5-57a1-4e35-bc53-7a7473805409</t>
+          <t>d2841713-f550-49b4-9a1f-164b378c8479</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2975</v>
+        <v>1102</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.518305</t>
-        </is>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
+          <t>2001-01-24T09:04:41.055052</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PROB_MAINPAGE_LOGIN</t>
+          <t>PROB_MAINPAGE_NOT_LOGIN</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>870ba5e5-57a1-4e35-bc53-7a7473805409</t>
+          <t>d2841713-f550-49b4-9a1f-164b378c8479</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2975</v>
+        <v>1102</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.518317</t>
+          <t>2001-01-24T09:04:45.564858</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PROB_VIEW_ITEM_LIST</t>
+          <t>PROB_MAINPAGE_NOT_LOGIN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>870ba5e5-57a1-4e35-bc53-7a7473805409</t>
+          <t>d2841713-f550-49b4-9a1f-164b378c8479</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2975</v>
+        <v>1102</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.518321</t>
+          <t>2001-01-24T09:04:48.973575</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>3.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PROB_VIEW_ITEM_LOGIN</t>
+          <t>PROB_VIEW_ITEM_LIST</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>870ba5e5-57a1-4e35-bc53-7a7473805409</t>
+          <t>d2841713-f550-49b4-9a1f-164b378c8479</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2975</v>
+        <v>1102</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.518326</t>
+          <t>2001-01-24T09:05:03.286932</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>14.31</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>App Launch</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>f684053a-d003-4575-ab1d-d912f53798f4</t>
+          <t>d2841713-f550-49b4-9a1f-164b378c8479</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4326</v>
+        <v>1102</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.520645</t>
+          <t>2001-01-24T09:05:04.286932</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>View Main Page</t>
+          <t>Reconnect_Session</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>f684053a-d003-4575-ab1d-d912f53798f4</t>
+          <t>d2841713-f550-49b4-9a1f-164b378c8479</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4326</v>
+        <v>1102</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.520649</t>
+          <t>2001-01-24T09:05:11.394454</t>
         </is>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PROB_MAINPAGE_LOGIN</t>
+          <t>PROB_VIEW_ITEM_LIST</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>f684053a-d003-4575-ab1d-d912f53798f4</t>
+          <t>d2841713-f550-49b4-9a1f-164b378c8479</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4326</v>
+        <v>1102</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.520669</t>
+          <t>2001-01-24T09:05:21.619472</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>10.23</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PROB_VIEW_ITEM_LIST</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>f684053a-d003-4575-ab1d-d912f53798f4</t>
+          <t>d2841713-f550-49b4-9a1f-164b378c8479</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4326</v>
+        <v>1102</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.520680</t>
+          <t>2001-01-24T09:05:22.619472</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PROB_VIEW_ITEM_LOGIN</t>
+          <t>Reconnect_Session</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>f684053a-d003-4575-ab1d-d912f53798f4</t>
+          <t>d2841713-f550-49b4-9a1f-164b378c8479</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4326</v>
+        <v>1102</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.520704</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>2001-01-24T09:05:30.240249</t>
+        </is>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PROB_ACTION_AFTER_ADD_TO_CART</t>
+          <t>PROB_VIEW_ITEM_LIST</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>f684053a-d003-4575-ab1d-d912f53798f4</t>
+          <t>d2841713-f550-49b4-9a1f-164b378c8479</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4326</v>
+        <v>1102</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.520709</t>
+          <t>2001-01-24T09:05:39.001022</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>8.76</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PROB_ACTION_AFTER_VIEW_CART</t>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>f684053a-d003-4575-ab1d-d912f53798f4</t>
+          <t>d2841713-f550-49b4-9a1f-164b378c8479</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4326</v>
+        <v>1102</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.520713</t>
+          <t>2001-01-24T09:06:07.740659</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>28.74</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PROB_PURCHASE_CLEAR</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>f684053a-d003-4575-ab1d-d912f53798f4</t>
+          <t>d2841713-f550-49b4-9a1f-164b378c8479</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4326</v>
+        <v>1102</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.520717</t>
+          <t>2001-01-24T09:06:08.740659</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PROB_ORDER_DETAIL</t>
+          <t>Reconnect_Session</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>f684053a-d003-4575-ab1d-d912f53798f4</t>
+          <t>d2841713-f550-49b4-9a1f-164b378c8479</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4326</v>
+        <v>1102</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.520721</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>2001-01-24T09:06:16.103667</t>
+        </is>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PROB_MAINPAGE_LOGIN</t>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>f684053a-d003-4575-ab1d-d912f53798f4</t>
+          <t>d2841713-f550-49b4-9a1f-164b378c8479</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4326</v>
+        <v>1102</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.520726</t>
+          <t>2001-01-24T09:06:33.082858</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>16.98</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PROB_VIEW_ITEM_LIST</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>f684053a-d003-4575-ab1d-d912f53798f4</t>
+          <t>d2841713-f550-49b4-9a1f-164b378c8479</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4326</v>
+        <v>1102</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.520729</t>
+          <t>2001-01-24T09:06:34.082858</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PROB_VIEW_ITEM_LOGIN</t>
+          <t>App Launch</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>f684053a-d003-4575-ab1d-d912f53798f4</t>
+          <t>280a7170-74f8-49ac-9b3a-24a3eb0be1d3</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4326</v>
+        <v>1102</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025-10-27T14:55:46.520732</t>
+          <t>2001-02-12T03:43:01</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>View Main Page</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>280a7170-74f8-49ac-9b3a-24a3eb0be1d3</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2001-02-12T03:43:02.504985</t>
+        </is>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>280a7170-74f8-49ac-9b3a-24a3eb0be1d3</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2001-02-12T03:43:08.307563</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>280a7170-74f8-49ac-9b3a-24a3eb0be1d3</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2001-02-12T03:43:21.504449</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>280a7170-74f8-49ac-9b3a-24a3eb0be1d3</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2001-02-12T03:43:49.062851</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>27.56</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>280a7170-74f8-49ac-9b3a-24a3eb0be1d3</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2001-02-12T03:43:50.062851</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>App Launch</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>d43c57d1-1f08-4d68-828c-deae591b1b27</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2001-03-02T18:05:20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>View Main Page</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>d43c57d1-1f08-4d68-828c-deae591b1b27</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2001-03-02T18:05:21.735707</t>
+        </is>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>d43c57d1-1f08-4d68-828c-deae591b1b27</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2001-03-02T18:05:27.626112</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>d43c57d1-1f08-4d68-828c-deae591b1b27</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2001-03-02T18:05:38.375232</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>d43c57d1-1f08-4d68-828c-deae591b1b27</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2001-03-02T18:06:08.289704</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>29.91</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>PROB_PURCHASE_CLEAR</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>f684053a-d003-4575-ab1d-d912f53798f4</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>4326</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2025-10-27T14:55:46.520737</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>d43c57d1-1f08-4d68-828c-deae591b1b27</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2001-03-02T18:06:13.819756</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PROB_ORDER_DETAIL</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>d43c57d1-1f08-4d68-828c-deae591b1b27</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2001-03-02T18:06:25.405053</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>11.59</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>d43c57d1-1f08-4d68-828c-deae591b1b27</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2001-03-02T18:06:26.405053</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>d43c57d1-1f08-4d68-828c-deae591b1b27</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2001-03-02T18:06:33.642694</t>
+        </is>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PROB_ORDER_DETAIL</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>d43c57d1-1f08-4d68-828c-deae591b1b27</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2001-03-02T18:06:51.086059</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>17.44</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>d43c57d1-1f08-4d68-828c-deae591b1b27</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2001-03-02T18:06:55.903747</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>d43c57d1-1f08-4d68-828c-deae591b1b27</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2001-03-02T18:07:02.748902</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>d43c57d1-1f08-4d68-828c-deae591b1b27</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2001-03-02T18:07:17.450380</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>d43c57d1-1f08-4d68-828c-deae591b1b27</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2001-03-02T18:07:41.899460</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>24.45</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>d43c57d1-1f08-4d68-828c-deae591b1b27</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2001-03-02T18:07:42.899460</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>App Launch</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>c23f34b9-ad67-48c2-8c7b-64a2272d5d38</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2001-01-29T07:25:22</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>View Main Page</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>c23f34b9-ad67-48c2-8c7b-64a2272d5d38</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2001-01-29T07:25:23.111883</t>
+        </is>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>c23f34b9-ad67-48c2-8c7b-64a2272d5d38</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2001-01-29T07:25:28.601024</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>c23f34b9-ad67-48c2-8c7b-64a2272d5d38</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2001-01-29T07:25:34.230358</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>c23f34b9-ad67-48c2-8c7b-64a2272d5d38</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2001-01-29T07:25:48.038818</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>c23f34b9-ad67-48c2-8c7b-64a2272d5d38</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2001-01-29T07:26:16.935378</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PROB_PURCHASE_CLEAR</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>c23f34b9-ad67-48c2-8c7b-64a2272d5d38</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2001-01-29T07:26:23.023750</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>c23f34b9-ad67-48c2-8c7b-64a2272d5d38</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2001-01-29T07:26:28.013299</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>c23f34b9-ad67-48c2-8c7b-64a2272d5d38</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2001-01-29T07:26:32.050955</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>c23f34b9-ad67-48c2-8c7b-64a2272d5d38</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2001-01-29T07:26:37.790657</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>c23f34b9-ad67-48c2-8c7b-64a2272d5d38</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2001-01-29T07:26:47.099153</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>c23f34b9-ad67-48c2-8c7b-64a2272d5d38</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2001-01-29T07:26:48.099153</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>App Launch</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:45:03</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>View Main Page</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:45:04.129903</t>
+        </is>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:45:10.255918</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:45:15.925623</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:45:21.671007</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:45:32.792607</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>11.12</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:45:49.027701</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>16.24</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:45:50.027701</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:45:57.915416</t>
+        </is>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:46:21.780563</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>23.87</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PROB_ACTION_AFTER_ADD_TO_CART</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:46:23.569667</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:46:27.934228</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:46:34.663801</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:46:45.980023</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:47:04.076986</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:47:05.076986</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:47:11.437237</t>
+        </is>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:47:30.102298</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>18.67</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:47:31.102298</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:47:38.813061</t>
+        </is>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:48:01.480759</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>22.67</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:48:02.480759</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:48:08.623540</t>
+        </is>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:48:26.600026</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>PROB_ACTION_AFTER_ADD_TO_CART</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:48:27.843901</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:48:31.260691</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:48:36.773389</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:48:40.076338</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:48:44.137868</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:48:48.257526</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>PROB_MYPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:48:57.173547</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>PROB_ORDER_DETAIL</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:49:17.156608</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:49:18.156608</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:49:24.288681</t>
+        </is>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>PROB_ORDER_DETAIL</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:49:35.353093</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>d34e53a6-50f7-400a-a914-2af825423ddb</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2001-02-07T14:49:36.353093</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>App Launch</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>877a5c36-eb60-4c83-b31e-e330ffb85db1</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2001-02-16T12:54:06</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>View Main Page</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>877a5c36-eb60-4c83-b31e-e330ffb85db1</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2001-02-16T12:54:08.787959</t>
+        </is>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+      <c r="F116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>877a5c36-eb60-4c83-b31e-e330ffb85db1</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2001-02-16T12:54:15.257297</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>877a5c36-eb60-4c83-b31e-e330ffb85db1</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2001-02-16T12:54:19.245831</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>877a5c36-eb60-4c83-b31e-e330ffb85db1</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2001-02-16T12:54:22.299796</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>877a5c36-eb60-4c83-b31e-e330ffb85db1</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2001-02-16T12:54:30.581417</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="n">
+        <v>8.279999999999999</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>877a5c36-eb60-4c83-b31e-e330ffb85db1</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2001-02-16T12:54:48.026145</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="n">
+        <v>17.44</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>PROB_BARO_SHOP</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>877a5c36-eb60-4c83-b31e-e330ffb85db1</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2001-02-16T12:54:50.147255</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>PROB_BARO_VISIT</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>877a5c36-eb60-4c83-b31e-e330ffb85db1</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2001-02-16T12:54:52.085080</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>PROB_BARO_PURCHASE</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>877a5c36-eb60-4c83-b31e-e330ffb85db1</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2001-02-16T12:54:53.387555</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>PROB_PURCHASE_CLEAR</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>877a5c36-eb60-4c83-b31e-e330ffb85db1</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2001-02-16T12:55:00.568120</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="n">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>877a5c36-eb60-4c83-b31e-e330ffb85db1</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2001-02-16T12:55:01.568120</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>877a5c36-eb60-4c83-b31e-e330ffb85db1</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2001-02-16T12:55:09.214279</t>
+        </is>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+      <c r="F127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>PROB_PURCHASE_CLEAR</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>877a5c36-eb60-4c83-b31e-e330ffb85db1</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2001-02-16T12:55:15.815516</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>PROB_ORDER_DETAIL</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>877a5c36-eb60-4c83-b31e-e330ffb85db1</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2001-02-16T12:55:28.663070</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="n">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>877a5c36-eb60-4c83-b31e-e330ffb85db1</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2001-02-16T12:55:29.663070</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>App Launch</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>f9da0c5f-d5c7-4d38-9014-f10209c1a9f8</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2001-03-07T10:03:05</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>View Main Page</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>f9da0c5f-d5c7-4d38-9014-f10209c1a9f8</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2001-03-07T10:03:06.776381</t>
+        </is>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+      <c r="F132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>f9da0c5f-d5c7-4d38-9014-f10209c1a9f8</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2001-03-07T10:03:10.809097</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>PROB_MYPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>f9da0c5f-d5c7-4d38-9014-f10209c1a9f8</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2001-03-07T10:03:19.466726</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="n">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>PROB_ORDER_DETAIL</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>f9da0c5f-d5c7-4d38-9014-f10209c1a9f8</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2001-03-07T10:03:38.554701</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="n">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>f9da0c5f-d5c7-4d38-9014-f10209c1a9f8</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2001-03-07T10:03:39.554701</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>App Launch</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>7d547855-7625-433b-948d-0ff13de30431</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2001-03-16T09:39:12</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>View Main Page</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>7d547855-7625-433b-948d-0ff13de30431</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2001-03-16T09:39:13.845912</t>
+        </is>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+      <c r="F138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>7d547855-7625-433b-948d-0ff13de30431</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2001-03-16T09:39:17.459494</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>7d547855-7625-433b-948d-0ff13de30431</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2001-03-16T09:39:21.529015</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>7d547855-7625-433b-948d-0ff13de30431</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2001-03-16T09:39:24.631108</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>7d547855-7625-433b-948d-0ff13de30431</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2001-03-16T09:39:33.525682</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="n">
+        <v>8.890000000000001</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>7d547855-7625-433b-948d-0ff13de30431</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2001-03-16T09:39:53.382961</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="n">
+        <v>19.86</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>7d547855-7625-433b-948d-0ff13de30431</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2001-03-16T09:39:54.382961</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>7d547855-7625-433b-948d-0ff13de30431</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2001-03-16T09:40:00.738613</t>
+        </is>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+      <c r="F145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>7d547855-7625-433b-948d-0ff13de30431</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2001-03-16T09:40:26.517331</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="n">
+        <v>25.78</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>PROB_BARO_SHOP</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>7d547855-7625-433b-948d-0ff13de30431</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2001-03-16T09:40:28.495250</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>PROB_BARO_VISIT</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>7d547855-7625-433b-948d-0ff13de30431</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2001-03-16T09:40:30.089160</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>PROB_BARO_PURCHASE</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>7d547855-7625-433b-948d-0ff13de30431</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2001-03-16T09:40:32.633520</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>PROB_PURCHASE_CLEAR</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>7d547855-7625-433b-948d-0ff13de30431</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2001-03-16T09:40:41.541612</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="n">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>PROB_ORDER_DETAIL</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>7d547855-7625-433b-948d-0ff13de30431</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2001-03-16T09:40:55.748826</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="n">
+        <v>14.21</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>7d547855-7625-433b-948d-0ff13de30431</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2001-03-16T09:40:56.748826</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>App Launch</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:29:10</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>View Main Page</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:29:12.025467</t>
+        </is>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+      <c r="F154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:29:17.543583</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="n">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:29:30.583357</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="n">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:29:45.615532</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="n">
+        <v>15.03</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:29:46.615532</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:29:53.893134</t>
+        </is>
+      </c>
+      <c r="E159" t="b">
+        <v>1</v>
+      </c>
+      <c r="F159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:30:09.327162</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="n">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>PROB_ACTION_AFTER_ADD_TO_CART</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:30:10.659876</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:30:17.599223</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="n">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:30:27.252244</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="n">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:30:44.969704</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="n">
+        <v>17.72</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:30:45.969704</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:30:52.527012</t>
+        </is>
+      </c>
+      <c r="E166" t="b">
+        <v>1</v>
+      </c>
+      <c r="F166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:31:13.369188</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="n">
+        <v>20.84</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>PROB_ACTION_AFTER_ADD_TO_CART</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:31:16.322753</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>PROB_ACTION_AFTER_VIEW_CART</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:31:31.420502</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>PROB_PURCHASE_CLEAR</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:31:40.432379</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="n">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:31:46.496258</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="n">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:31:50.878854</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:32:02.960621</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="n">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:32:28.247257</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="n">
+        <v>25.29</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>a25af1c0-76d4-4e6e-807a-cd446af28289</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2001-03-26T00:32:29.247257</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>App Launch</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:20:48</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>View Main Page</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:20:50.114354</t>
+        </is>
+      </c>
+      <c r="E177" t="b">
+        <v>1</v>
+      </c>
+      <c r="F177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:20:57.031023</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="n">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:21:09.438690</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="n">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:21:24.705263</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>PROB_ACTION_AFTER_ADD_TO_CART</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:21:26.458904</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>PROB_ACTION_AFTER_VIEW_CART</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:21:39.426921</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="n">
+        <v>12.97</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>PROB_PURCHASE_CLEAR</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:21:48.927494</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>PROB_ORDER_DETAIL</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:22:04.083736</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="n">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:22:09.697017</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="n">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:22:21.864699</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="n">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:22:49.767660</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="n">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:22:50.767660</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:22:58.140593</t>
+        </is>
+      </c>
+      <c r="E189" t="b">
+        <v>1</v>
+      </c>
+      <c r="F189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:23:18.747102</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="n">
+        <v>20.61</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:23:19.747102</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:23:26.317656</t>
+        </is>
+      </c>
+      <c r="E192" t="b">
+        <v>1</v>
+      </c>
+      <c r="F192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:23:49.896544</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="n">
+        <v>23.58</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>f9c88071-be8f-4a2b-94c0-4c650457278c</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2001-01-05T17:23:50.896544</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>App Launch</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>46f9e1c2-021c-47c3-aa0f-8f7d302d7183</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2001-01-10T09:40:45</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>View Main Page</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>46f9e1c2-021c-47c3-aa0f-8f7d302d7183</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2001-01-10T09:40:47.100142</t>
+        </is>
+      </c>
+      <c r="E196" t="b">
+        <v>1</v>
+      </c>
+      <c r="F196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>46f9e1c2-021c-47c3-aa0f-8f7d302d7183</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2001-01-10T09:40:53.624358</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>46f9e1c2-021c-47c3-aa0f-8f7d302d7183</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2001-01-10T09:41:08.269181</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="n">
+        <v>14.64</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>46f9e1c2-021c-47c3-aa0f-8f7d302d7183</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2001-01-10T09:41:34.549972</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="n">
+        <v>26.28</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>46f9e1c2-021c-47c3-aa0f-8f7d302d7183</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2001-01-10T09:41:35.549972</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>46f9e1c2-021c-47c3-aa0f-8f7d302d7183</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2001-01-10T09:41:43.063675</t>
+        </is>
+      </c>
+      <c r="E201" t="b">
+        <v>1</v>
+      </c>
+      <c r="F201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>46f9e1c2-021c-47c3-aa0f-8f7d302d7183</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2001-01-10T09:42:06.580679</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="n">
+        <v>23.52</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>46f9e1c2-021c-47c3-aa0f-8f7d302d7183</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2001-01-10T09:42:07.580679</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>App Launch</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>acf40879-e53b-4933-abc9-672d6af00fd7</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2001-01-19T22:36:01</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>View Main Page</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>acf40879-e53b-4933-abc9-672d6af00fd7</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2001-01-19T22:36:03.548277</t>
+        </is>
+      </c>
+      <c r="E205" t="b">
+        <v>1</v>
+      </c>
+      <c r="F205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>acf40879-e53b-4933-abc9-672d6af00fd7</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2001-01-19T22:36:08.859721</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="n">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>acf40879-e53b-4933-abc9-672d6af00fd7</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2001-01-19T22:36:14.024814</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="n">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>acf40879-e53b-4933-abc9-672d6af00fd7</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2001-01-19T22:36:18.808984</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="n">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>acf40879-e53b-4933-abc9-672d6af00fd7</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2001-01-19T22:36:23.844013</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>acf40879-e53b-4933-abc9-672d6af00fd7</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2001-01-19T22:36:28.208722</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>acf40879-e53b-4933-abc9-672d6af00fd7</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2001-01-19T22:36:41.945564</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="n">
+        <v>13.74</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>acf40879-e53b-4933-abc9-672d6af00fd7</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2001-01-19T22:37:05.659231</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="n">
+        <v>23.71</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>acf40879-e53b-4933-abc9-672d6af00fd7</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2001-01-19T22:37:06.659231</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>acf40879-e53b-4933-abc9-672d6af00fd7</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2001-01-19T22:37:12.694777</t>
+        </is>
+      </c>
+      <c r="E214" t="b">
+        <v>1</v>
+      </c>
+      <c r="F214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>acf40879-e53b-4933-abc9-672d6af00fd7</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2001-01-19T22:37:34.408605</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="n">
+        <v>21.71</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>acf40879-e53b-4933-abc9-672d6af00fd7</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2001-01-19T22:37:35.408605</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>acf40879-e53b-4933-abc9-672d6af00fd7</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2001-01-19T22:37:42.559747</t>
+        </is>
+      </c>
+      <c r="E217" t="b">
+        <v>1</v>
+      </c>
+      <c r="F217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>acf40879-e53b-4933-abc9-672d6af00fd7</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2001-01-19T22:38:03.847532</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="n">
+        <v>21.29</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>acf40879-e53b-4933-abc9-672d6af00fd7</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2001-01-19T22:38:04.847532</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>App Launch</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>5ee4d8d6-a4ef-4a16-835d-e3b663a5fe65</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2001-02-02T15:44:52</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>View Main Page</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>5ee4d8d6-a4ef-4a16-835d-e3b663a5fe65</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2001-02-02T15:44:54.820641</t>
+        </is>
+      </c>
+      <c r="E221" t="b">
+        <v>1</v>
+      </c>
+      <c r="F221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>5ee4d8d6-a4ef-4a16-835d-e3b663a5fe65</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2001-02-02T15:45:00.389431</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>PROB_MYPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>5ee4d8d6-a4ef-4a16-835d-e3b663a5fe65</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2001-02-02T15:45:14.313367</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="n">
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>PROB_ORDER_DETAIL</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>5ee4d8d6-a4ef-4a16-835d-e3b663a5fe65</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2001-02-02T15:45:30.088855</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="n">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>5ee4d8d6-a4ef-4a16-835d-e3b663a5fe65</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2001-02-02T15:45:31.088855</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>App Launch</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2bd78deb-c798-4802-8f22-824d5436c853</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2001-02-21T10:14:39</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>View Main Page</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2bd78deb-c798-4802-8f22-824d5436c853</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2001-02-21T10:14:41.092318</t>
+        </is>
+      </c>
+      <c r="E227" t="b">
+        <v>1</v>
+      </c>
+      <c r="F227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2bd78deb-c798-4802-8f22-824d5436c853</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2001-02-21T10:14:46.486523</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2bd78deb-c798-4802-8f22-824d5436c853</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2001-02-21T10:14:49.698007</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2bd78deb-c798-4802-8f22-824d5436c853</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2001-02-21T10:14:56.605611</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2bd78deb-c798-4802-8f22-824d5436c853</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2001-02-21T10:15:02.646450</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="n">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2bd78deb-c798-4802-8f22-824d5436c853</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2001-02-21T10:15:06.720208</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2bd78deb-c798-4802-8f22-824d5436c853</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2001-02-21T10:15:10.693465</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2bd78deb-c798-4802-8f22-824d5436c853</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2001-02-21T10:15:13.787242</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2bd78deb-c798-4802-8f22-824d5436c853</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2001-02-21T10:15:22.016111</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2bd78deb-c798-4802-8f22-824d5436c853</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2001-02-21T10:15:37.250644</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="n">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2bd78deb-c798-4802-8f22-824d5436c853</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2001-02-21T10:15:38.250644</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2bd78deb-c798-4802-8f22-824d5436c853</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2001-02-21T10:15:44.322098</t>
+        </is>
+      </c>
+      <c r="E238" t="b">
+        <v>1</v>
+      </c>
+      <c r="F238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2bd78deb-c798-4802-8f22-824d5436c853</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2001-02-21T10:16:08.290481</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="n">
+        <v>23.97</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>PROB_ACTION_AFTER_ADD_TO_CART</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2bd78deb-c798-4802-8f22-824d5436c853</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2001-02-21T10:16:10.891080</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>PROB_ACTION_AFTER_VIEW_CART</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2bd78deb-c798-4802-8f22-824d5436c853</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2001-02-21T10:16:31.982267</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="n">
+        <v>21.09</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>PROB_PURCHASE_CLEAR</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2bd78deb-c798-4802-8f22-824d5436c853</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2001-02-21T10:16:37.572302</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2bd78deb-c798-4802-8f22-824d5436c853</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2001-02-21T10:16:38.572302</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>App Launch</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1431de7e-daca-4250-b636-21e9dbaa6436</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2001-02-25T20:05:01</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>View Main Page</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1431de7e-daca-4250-b636-21e9dbaa6436</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2001-02-25T20:05:02.712482</t>
+        </is>
+      </c>
+      <c r="E245" t="b">
+        <v>1</v>
+      </c>
+      <c r="F245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1431de7e-daca-4250-b636-21e9dbaa6436</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2001-02-25T20:05:09.055505</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="n">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1431de7e-daca-4250-b636-21e9dbaa6436</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2001-02-25T20:05:21.055593</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1431de7e-daca-4250-b636-21e9dbaa6436</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2001-02-25T20:05:44.378469</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="n">
+        <v>23.32</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1431de7e-daca-4250-b636-21e9dbaa6436</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2001-02-25T20:05:45.378469</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1431de7e-daca-4250-b636-21e9dbaa6436</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2001-02-25T20:05:52.674633</t>
+        </is>
+      </c>
+      <c r="E250" t="b">
+        <v>1</v>
+      </c>
+      <c r="F250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1431de7e-daca-4250-b636-21e9dbaa6436</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2001-02-25T20:06:19.614971</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="n">
+        <v>26.94</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1431de7e-daca-4250-b636-21e9dbaa6436</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2001-02-25T20:06:20.614971</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>App Launch</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1a21c3ce-bc9a-4162-ab20-2979f47c37ac</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2001-03-11T21:31:55</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>View Main Page</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1a21c3ce-bc9a-4162-ab20-2979f47c37ac</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2001-03-11T21:31:57.231395</t>
+        </is>
+      </c>
+      <c r="E254" t="b">
+        <v>1</v>
+      </c>
+      <c r="F254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1a21c3ce-bc9a-4162-ab20-2979f47c37ac</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2001-03-11T21:32:04.113682</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="n">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1a21c3ce-bc9a-4162-ab20-2979f47c37ac</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2001-03-11T21:32:10.347926</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="n">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1a21c3ce-bc9a-4162-ab20-2979f47c37ac</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2001-03-11T21:32:17.098947</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="n">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1a21c3ce-bc9a-4162-ab20-2979f47c37ac</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2001-03-11T21:32:23.052676</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="n">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1a21c3ce-bc9a-4162-ab20-2979f47c37ac</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2001-03-11T21:32:29.419716</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="n">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1a21c3ce-bc9a-4162-ab20-2979f47c37ac</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2001-03-11T21:32:36.074375</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="n">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1a21c3ce-bc9a-4162-ab20-2979f47c37ac</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2001-03-11T21:32:42.710362</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="n">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1a21c3ce-bc9a-4162-ab20-2979f47c37ac</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2001-03-11T21:32:52.386328</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="n">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1a21c3ce-bc9a-4162-ab20-2979f47c37ac</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2001-03-11T21:33:13.345339</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="n">
+        <v>20.96</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1a21c3ce-bc9a-4162-ab20-2979f47c37ac</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2001-03-11T21:33:14.345339</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>App Launch</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>c2ae192e-3906-4f8c-a378-45b4d481209c</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2001-03-21T11:52:45</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>View Main Page</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>c2ae192e-3906-4f8c-a378-45b4d481209c</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2001-03-21T11:52:46.183930</t>
+        </is>
+      </c>
+      <c r="E266" t="b">
+        <v>1</v>
+      </c>
+      <c r="F266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>c2ae192e-3906-4f8c-a378-45b4d481209c</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2001-03-21T11:52:51.162874</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>c2ae192e-3906-4f8c-a378-45b4d481209c</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2001-03-21T11:53:00.433109</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="n">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>c2ae192e-3906-4f8c-a378-45b4d481209c</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2001-03-21T11:53:25.385880</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="n">
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>PROB_ACTION_AFTER_ADD_TO_CART</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>c2ae192e-3906-4f8c-a378-45b4d481209c</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2001-03-21T11:53:27.851904</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>PROB_ACTION_AFTER_VIEW_CART</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>c2ae192e-3906-4f8c-a378-45b4d481209c</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2001-03-21T11:53:39.956128</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="n">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>PROB_PURCHASE_CLEAR</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>c2ae192e-3906-4f8c-a378-45b4d481209c</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2001-03-21T11:53:46.644019</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>c2ae192e-3906-4f8c-a378-45b4d481209c</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2001-03-21T11:53:47.644019</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>App Launch</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>9eb73631-68cd-4e66-944b-4889a68c6195</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2001-03-30T16:35:22</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>View Main Page</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>9eb73631-68cd-4e66-944b-4889a68c6195</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2001-03-30T16:35:24.118327</t>
+        </is>
+      </c>
+      <c r="E275" t="b">
+        <v>1</v>
+      </c>
+      <c r="F275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>PROB_MAINPAGE_LOGIN</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>9eb73631-68cd-4e66-944b-4889a68c6195</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2001-03-30T16:35:31.004463</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LIST</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>9eb73631-68cd-4e66-944b-4889a68c6195</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2001-03-30T16:35:44.407192</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="n">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>PROB_VIEW_ITEM_LOGIN</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>9eb73631-68cd-4e66-944b-4889a68c6195</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2001-03-30T16:36:01.260505</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="n">
+        <v>16.85</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>PROB_PURCHASE_CLEAR</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>9eb73631-68cd-4e66-944b-4889a68c6195</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2001-03-30T16:36:11.150783</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="n">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>PROB_ORDER_DETAIL</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>9eb73631-68cd-4e66-944b-4889a68c6195</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2001-03-30T16:36:21.888779</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="n">
+        <v>10.74</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>9eb73631-68cd-4e66-944b-4889a68c6195</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2001-03-30T16:36:22.888779</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>9eb73631-68cd-4e66-944b-4889a68c6195</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2001-03-30T16:36:30.312531</t>
+        </is>
+      </c>
+      <c r="E282" t="b">
+        <v>1</v>
+      </c>
+      <c r="F282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>PROB_ORDER_DETAIL</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>9eb73631-68cd-4e66-944b-4889a68c6195</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2001-03-30T16:36:40.713633</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>9eb73631-68cd-4e66-944b-4889a68c6195</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2001-03-30T16:36:41.713633</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Reconnect_Session</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>9eb73631-68cd-4e66-944b-4889a68c6195</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2001-03-30T16:36:49.628567</t>
+        </is>
+      </c>
+      <c r="E285" t="b">
+        <v>1</v>
+      </c>
+      <c r="F285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>PROB_ORDER_DETAIL</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>9eb73631-68cd-4e66-944b-4889a68c6195</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2001-03-30T16:37:07.560157</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="n">
+        <v>17.93</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>9eb73631-68cd-4e66-944b-4889a68c6195</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>5826</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2001-03-30T16:37:08.560157</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
